--- a/Day-10.04/сводные таблицы 2.xlsx
+++ b/Day-10.04/сводные таблицы 2.xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Desktop\083_\Day-10.04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D37EA444-0FC7-4F77-BB76-CF45AF5FA558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD83B90D-9114-45D9-AE30-7F534DEB6440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="375" windowWidth="28200" windowHeight="15165" xr2:uid="{999CAB9F-BA5F-45F9-91B4-F94F1529532D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{999CAB9F-BA5F-45F9-91B4-F94F1529532D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$713</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="50" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3567" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3667" uniqueCount="70">
   <si>
     <t>Дата</t>
   </si>
@@ -98,6 +104,144 @@
   <si>
     <t>Четверг</t>
   </si>
+  <si>
+    <t>Названия строк</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
+  </si>
+  <si>
+    <t>Названия столбцов</t>
+  </si>
+  <si>
+    <t>Сумма по полю Сумма</t>
+  </si>
+  <si>
+    <t>сумма по типам счетов по отделениям</t>
+  </si>
+  <si>
+    <t>(Все)</t>
+  </si>
+  <si>
+    <t>(несколько элементов)</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1914</t>
+  </si>
+  <si>
+    <t>1917</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>1923</t>
+  </si>
+  <si>
+    <t>1926</t>
+  </si>
+  <si>
+    <t>1929</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>1935</t>
+  </si>
+  <si>
+    <t>1938</t>
+  </si>
+  <si>
+    <t>1941</t>
+  </si>
+  <si>
+    <t>1944</t>
+  </si>
+  <si>
+    <t>1947</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
 </sst>
 </file>
 
@@ -105,8 +249,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="dddd"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="dddd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -205,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,21 +357,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -244,6 +399,7799 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Denis" refreshedDate="45026.694218750003" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="712" xr:uid="{D3BBC820-9306-44C2-B6E7-9DCD1A51C300}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G713" sheet="Лист1"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="Дата" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1905-04-13T00:00:00" maxDate="2019-05-23T00:00:00" count="88">
+        <d v="2019-04-01T00:00:00"/>
+        <d v="2019-04-02T00:00:00"/>
+        <d v="2019-04-04T00:00:00"/>
+        <d v="2019-04-05T00:00:00"/>
+        <d v="2019-04-06T00:00:00"/>
+        <d v="2019-04-07T00:00:00"/>
+        <d v="2019-04-08T00:00:00"/>
+        <d v="2019-04-11T00:00:00"/>
+        <d v="2019-04-12T00:00:00"/>
+        <d v="2019-04-13T00:00:00"/>
+        <d v="2016-04-13T00:00:00"/>
+        <d v="2013-04-13T00:00:00"/>
+        <d v="2010-04-13T00:00:00"/>
+        <d v="2007-04-13T00:00:00"/>
+        <d v="2004-04-13T00:00:00"/>
+        <d v="2001-04-13T00:00:00"/>
+        <d v="1998-04-13T00:00:00"/>
+        <d v="1995-04-13T00:00:00"/>
+        <d v="1992-04-13T00:00:00"/>
+        <d v="1989-04-13T00:00:00"/>
+        <d v="1986-04-13T00:00:00"/>
+        <d v="1983-04-13T00:00:00"/>
+        <d v="1980-04-13T00:00:00"/>
+        <d v="1977-04-13T00:00:00"/>
+        <d v="1974-04-13T00:00:00"/>
+        <d v="1971-04-13T00:00:00"/>
+        <d v="1968-04-13T00:00:00"/>
+        <d v="1965-04-13T00:00:00"/>
+        <d v="1962-04-13T00:00:00"/>
+        <d v="1959-04-13T00:00:00"/>
+        <d v="1956-04-13T00:00:00"/>
+        <d v="1953-04-13T00:00:00"/>
+        <d v="1950-04-13T00:00:00"/>
+        <d v="1947-04-13T00:00:00"/>
+        <d v="1944-04-13T00:00:00"/>
+        <d v="1941-04-13T00:00:00"/>
+        <d v="1938-04-13T00:00:00"/>
+        <d v="1935-04-13T00:00:00"/>
+        <d v="1932-04-13T00:00:00"/>
+        <d v="1929-04-13T00:00:00"/>
+        <d v="1926-04-13T00:00:00"/>
+        <d v="1923-04-13T00:00:00"/>
+        <d v="1920-04-13T00:00:00"/>
+        <d v="1917-04-13T00:00:00"/>
+        <d v="1914-04-13T00:00:00"/>
+        <d v="1911-04-13T00:00:00"/>
+        <d v="1908-04-13T00:00:00"/>
+        <d v="1905-04-13T00:00:00"/>
+        <d v="2019-04-14T00:00:00"/>
+        <d v="2019-04-15T00:00:00"/>
+        <d v="2019-04-16T00:00:00"/>
+        <d v="2019-04-17T00:00:00"/>
+        <d v="2019-04-18T00:00:00"/>
+        <d v="2019-04-19T00:00:00"/>
+        <d v="2019-04-20T00:00:00"/>
+        <d v="2019-04-21T00:00:00"/>
+        <d v="2019-04-22T00:00:00"/>
+        <d v="2019-04-23T00:00:00"/>
+        <d v="2019-04-24T00:00:00"/>
+        <d v="2019-04-25T00:00:00"/>
+        <d v="2019-04-26T00:00:00"/>
+        <d v="2019-04-27T00:00:00"/>
+        <d v="2019-04-28T00:00:00"/>
+        <d v="2019-04-29T00:00:00"/>
+        <d v="2019-04-30T00:00:00"/>
+        <d v="2019-05-01T00:00:00"/>
+        <d v="2019-05-02T00:00:00"/>
+        <d v="2019-05-03T00:00:00"/>
+        <d v="2019-05-04T00:00:00"/>
+        <d v="2019-05-05T00:00:00"/>
+        <d v="2019-05-06T00:00:00"/>
+        <d v="2019-05-07T00:00:00"/>
+        <d v="2019-05-08T00:00:00"/>
+        <d v="2019-05-09T00:00:00"/>
+        <d v="2019-05-10T00:00:00"/>
+        <d v="2019-05-11T00:00:00"/>
+        <d v="2019-05-12T00:00:00"/>
+        <d v="2019-05-13T00:00:00"/>
+        <d v="2019-05-14T00:00:00"/>
+        <d v="2019-05-15T00:00:00"/>
+        <d v="2019-05-16T00:00:00"/>
+        <d v="2019-05-17T00:00:00"/>
+        <d v="2019-05-18T00:00:00"/>
+        <d v="2019-05-19T00:00:00"/>
+        <d v="2019-05-20T00:00:00"/>
+        <d v="2019-05-21T00:00:00"/>
+        <d v="2019-05-22T00:00:00"/>
+        <d v="2016-04-19T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="8" base="0">
+        <rangePr groupBy="months" startDate="1905-04-13T00:00:00" endDate="2019-05-23T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;13.04.1905"/>
+          <s v="янв"/>
+          <s v="фев"/>
+          <s v="мар"/>
+          <s v="апр"/>
+          <s v="май"/>
+          <s v="июн"/>
+          <s v="июл"/>
+          <s v="авг"/>
+          <s v="сен"/>
+          <s v="окт"/>
+          <s v="ноя"/>
+          <s v="дек"/>
+          <s v="&gt;23.05.2019"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="День недели" numFmtId="165">
+      <sharedItems count="6">
+        <s v="Пятница"/>
+        <s v="Суббота"/>
+        <s v="Понедельник"/>
+        <s v="Вторник"/>
+        <s v="Среда"/>
+        <s v="Четверг"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Сумма" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="90000"/>
+    </cacheField>
+    <cacheField name="Тип счета" numFmtId="0">
+      <sharedItems count="4">
+        <s v="На предъявителя"/>
+        <s v="Срочный"/>
+        <s v="Текущий"/>
+        <s v="Депозит"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Открыт" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Новый счет"/>
+        <s v="Касса"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Отделение" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Центральное"/>
+        <s v="Северное"/>
+        <s v="Западное"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Клиент" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Старый"/>
+        <s v="Новый"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Кварталы" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="quarters" startDate="1905-04-13T00:00:00" endDate="2019-05-23T00:00:00"/>
+        <groupItems count="6">
+          <s v="&lt;13.04.1905"/>
+          <s v="Кв-л1"/>
+          <s v="Кв-л2"/>
+          <s v="Кв-л3"/>
+          <s v="Кв-л4"/>
+          <s v="&gt;23.05.2019"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Годы" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="years" startDate="1905-04-13T00:00:00" endDate="2019-05-23T00:00:00"/>
+        <groupItems count="117">
+          <s v="&lt;13.04.1905"/>
+          <s v="1905"/>
+          <s v="1906"/>
+          <s v="1907"/>
+          <s v="1908"/>
+          <s v="1909"/>
+          <s v="1910"/>
+          <s v="1911"/>
+          <s v="1912"/>
+          <s v="1913"/>
+          <s v="1914"/>
+          <s v="1915"/>
+          <s v="1916"/>
+          <s v="1917"/>
+          <s v="1918"/>
+          <s v="1919"/>
+          <s v="1920"/>
+          <s v="1921"/>
+          <s v="1922"/>
+          <s v="1923"/>
+          <s v="1924"/>
+          <s v="1925"/>
+          <s v="1926"/>
+          <s v="1927"/>
+          <s v="1928"/>
+          <s v="1929"/>
+          <s v="1930"/>
+          <s v="1931"/>
+          <s v="1932"/>
+          <s v="1933"/>
+          <s v="1934"/>
+          <s v="1935"/>
+          <s v="1936"/>
+          <s v="1937"/>
+          <s v="1938"/>
+          <s v="1939"/>
+          <s v="1940"/>
+          <s v="1941"/>
+          <s v="1942"/>
+          <s v="1943"/>
+          <s v="1944"/>
+          <s v="1945"/>
+          <s v="1946"/>
+          <s v="1947"/>
+          <s v="1948"/>
+          <s v="1949"/>
+          <s v="1950"/>
+          <s v="1951"/>
+          <s v="1952"/>
+          <s v="1953"/>
+          <s v="1954"/>
+          <s v="1955"/>
+          <s v="1956"/>
+          <s v="1957"/>
+          <s v="1958"/>
+          <s v="1959"/>
+          <s v="1960"/>
+          <s v="1961"/>
+          <s v="1962"/>
+          <s v="1963"/>
+          <s v="1964"/>
+          <s v="1965"/>
+          <s v="1966"/>
+          <s v="1967"/>
+          <s v="1968"/>
+          <s v="1969"/>
+          <s v="1970"/>
+          <s v="1971"/>
+          <s v="1972"/>
+          <s v="1973"/>
+          <s v="1974"/>
+          <s v="1975"/>
+          <s v="1976"/>
+          <s v="1977"/>
+          <s v="1978"/>
+          <s v="1979"/>
+          <s v="1980"/>
+          <s v="1981"/>
+          <s v="1982"/>
+          <s v="1983"/>
+          <s v="1984"/>
+          <s v="1985"/>
+          <s v="1986"/>
+          <s v="1987"/>
+          <s v="1988"/>
+          <s v="1989"/>
+          <s v="1990"/>
+          <s v="1991"/>
+          <s v="1992"/>
+          <s v="1993"/>
+          <s v="1994"/>
+          <s v="1995"/>
+          <s v="1996"/>
+          <s v="1997"/>
+          <s v="1998"/>
+          <s v="1999"/>
+          <s v="2000"/>
+          <s v="2001"/>
+          <s v="2002"/>
+          <s v="2003"/>
+          <s v="2004"/>
+          <s v="2005"/>
+          <s v="2006"/>
+          <s v="2007"/>
+          <s v="2008"/>
+          <s v="2009"/>
+          <s v="2010"/>
+          <s v="2011"/>
+          <s v="2012"/>
+          <s v="2013"/>
+          <s v="2014"/>
+          <s v="2015"/>
+          <s v="2016"/>
+          <s v="2017"/>
+          <s v="2018"/>
+          <s v="2019"/>
+          <s v="&gt;23.05.2019"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="712">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="500"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="11779"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4623"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="8721"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15276"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13636"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7177"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6837"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3171"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="50000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4690"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12438"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="11957"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14571"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5879"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15759"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7427"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4500"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12962"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="500"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5364"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14867"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13061"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="45000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="4995"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="10096"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="14861"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="500"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="5524"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="5862"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="12592"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7188"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="9159"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="9208"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="5756"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="14480"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7028"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="9397"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="5025"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="500"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="9000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="5538"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="12953"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="8190"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="4348"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="6071"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="11000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="12000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="12203"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="250"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="9095"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="240"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3075"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="4309"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="12429"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="12824"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="65000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="6307"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="5000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="13000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="6000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="13215"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="13000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="13519"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="14067"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="500"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="14548"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2878"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="14702"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="240"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="15000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="35000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="50000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="5807"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="7770"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="7839"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="1000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="7434"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="8456"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="9705"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="11135"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="11761"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="100"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="12310"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3715"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="4231"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="100"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3644"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="5701"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3559"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="5000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="275"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="12000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="13000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="1000"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="200"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="10135"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="7000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="13500"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="17000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="45000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="10612"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="200"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="400"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="14158"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="6762"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="11719"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="500"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="5000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="5000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="7342"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="11552"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="11828"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="12000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="3820"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="100"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="10000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="13669"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="7777"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="13574"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="7000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="8371"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="12455"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="14644"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="200"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="5221"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="14841"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="3807"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="15208"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="10056"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="10219"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="133"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="5000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="124"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="90000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="4005"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="4198"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="4405"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="10373"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="11000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="250"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="2878"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="344"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="11594"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="7277"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="12000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="5282"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="14974"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="500"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="13390"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="12063"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="500"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="600"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="12164"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="8000"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="13000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="13428"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="6307"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="3171"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="6202"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="9009"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="245"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="400"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="13519"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="13903"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="5000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="500"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="7865"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="14000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="500"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="4535"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="240"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="100"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="14548"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="4000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="15703"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="16000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="17000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="2000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="2749"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="3000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="11721"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="4006"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="35000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="10492"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="50000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="75000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="9000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="4329"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="8915"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="6000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="4853"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="3434"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="500"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="5570"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="3845"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="8815"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="4681"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="1000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="10553"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="500"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="6000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="6586"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="6794"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="4635"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="8093"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="4000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="100"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="8174"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="14475"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="12794"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="6674"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="4805"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="8512"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="8801"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="9154"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="9268"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="10097"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="12303"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="12505"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="13524"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="12516"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="14969"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="500"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="9877"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="4915"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="7316"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="4295"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="5097"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="9624"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="5360"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="8552"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="13494"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="12932"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="3000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="12722"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="500"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="12334"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="10181"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="500"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="65000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="10751"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="10190"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="3075"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="11935"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="5116"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="13000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="6000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="240"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="8349"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="5366"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="2878"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="9095"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="13519"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="12418"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="5761"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="100"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="3000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="100"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="5000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="6573"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="8613"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="4540"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="10431"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="400"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="11931"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="12006"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="400"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="1325"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="14722"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="14644"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="16000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="7000"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="17000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="124"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="3000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="11798"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="250"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <n v="3525"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <n v="6190"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <n v="2749"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="4"/>
+    <n v="19000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="4"/>
+    <n v="10202"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="4"/>
+    <n v="9095"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="4"/>
+    <n v="500"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="4"/>
+    <n v="12000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="4"/>
+    <n v="12000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="4"/>
+    <n v="12000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="4"/>
+    <n v="12000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="4"/>
+    <n v="500"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="4"/>
+    <n v="500"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="4"/>
+    <n v="6000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="4"/>
+    <n v="12000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="4"/>
+    <n v="12535"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="4"/>
+    <n v="13500"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="4"/>
+    <n v="8000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="4"/>
+    <n v="13636"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="4"/>
+    <n v="500"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="4"/>
+    <n v="3075"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="4"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="4"/>
+    <n v="500"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="4"/>
+    <n v="500"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="4"/>
+    <n v="5723"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="4"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="4"/>
+    <n v="8000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="4"/>
+    <n v="7000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="4"/>
+    <n v="16000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="4"/>
+    <n v="5245"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="4"/>
+    <n v="3596"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="4"/>
+    <n v="5000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="4"/>
+    <n v="7882"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="4"/>
+    <n v="6000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="4"/>
+    <n v="4357"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="4"/>
+    <n v="9095"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="4"/>
+    <n v="7289"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="4"/>
+    <n v="6000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="4"/>
+    <n v="75000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="4"/>
+    <n v="5000"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="10795"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="12455"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="13637"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="5603"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="13899"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="11217"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="12519"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="10122"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="3807"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="13521"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="7649"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="7342"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="5233"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="14227"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="133"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="13000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="3949"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="600"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="15208"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="10862"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="200"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="8866"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="10000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="6676"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="50000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="6762"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="0"/>
+    <n v="14782"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="0"/>
+    <n v="3434"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="0"/>
+    <n v="14679"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="0"/>
+    <n v="4000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="0"/>
+    <n v="4652"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="0"/>
+    <n v="5879"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="0"/>
+    <n v="6534"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="0"/>
+    <n v="6000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="2000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="0"/>
+    <n v="11489"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="0"/>
+    <n v="3171"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="0"/>
+    <n v="14706"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="0"/>
+    <n v="12908"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="0"/>
+    <n v="7811"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="0"/>
+    <n v="7165"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="4623"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="0"/>
+    <n v="7989"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="0"/>
+    <n v="8133"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="0"/>
+    <n v="10368"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="0"/>
+    <n v="10071"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="0"/>
+    <n v="9395"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="0"/>
+    <n v="7218"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="0"/>
+    <n v="5000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="0"/>
+    <n v="14611"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="0"/>
+    <n v="100"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="0"/>
+    <n v="1000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="0"/>
+    <n v="11406"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="0"/>
+    <n v="8920"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="0"/>
+    <n v="10273"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="0"/>
+    <n v="14473"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="0"/>
+    <n v="9746"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="0"/>
+    <n v="9940"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="0"/>
+    <n v="10177"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="0"/>
+    <n v="9800"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="0"/>
+    <n v="12505"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="0"/>
+    <n v="11984"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="0"/>
+    <n v="5156"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="0"/>
+    <n v="13126"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="0"/>
+    <n v="14189"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="10141"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="9936"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="7037"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="4542"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="9098"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="14587"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="4857"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="5000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="8882"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="8940"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="10373"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="6808"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="100"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="13000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="5589"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="21000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="10103"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="10365"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="13519"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="200"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="13916"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="3"/>
+    <n v="3000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="3"/>
+    <n v="3000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="7884"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="14750"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="5000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="9000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="10768"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="500"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="6394"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="11498"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="240"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="12000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="5000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="12724"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="6000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="40599"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="12134"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="344"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="7000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="4000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="12903"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="14851"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="7258"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="13000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="13130"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="13500"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="8545"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="4779"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="240"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="13519"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="13636"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="4810"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="13903"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="2749"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="4635"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="8000"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="14169"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="15703"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="75000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="5000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="500"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="6000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="10147"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="500"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="3000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="100"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="2878"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="3"/>
+    <n v="3075"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="6762"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="5664"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="133"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="7970"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="3807"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="7013"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="10976"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="7342"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="12455"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="8633"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="9591"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="10000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="4323"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="12158"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="6761"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="9251"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="12198"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="5981"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="13900"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="6608"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="600"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="12958"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="13000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="15208"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="2749"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="11684"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="7604"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="75000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="11801"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="10329"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="5"/>
+    <n v="11935"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="5"/>
+    <n v="4635"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="5"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="5"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="5"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="5"/>
+    <n v="6379"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="5"/>
+    <n v="3951"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="5"/>
+    <n v="10101"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="5"/>
+    <n v="8469"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="5"/>
+    <n v="5680"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="5"/>
+    <n v="13000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="5"/>
+    <n v="344"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="5"/>
+    <n v="3000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="5"/>
+    <n v="4000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="5"/>
+    <n v="13519"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="5"/>
+    <n v="9000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="5"/>
+    <n v="2878"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="5"/>
+    <n v="6561"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="5"/>
+    <n v="3075"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="12700"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="5904"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="4191"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="5586"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="600"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="5943"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="3728"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="2000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="6314"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="7854"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="5393"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="8469"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="200"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="12789"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="133"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="30000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="11169"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="10306"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="500"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="11201"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="11541"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="8042"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="13973"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="7192"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="11898"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="2749"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="9641"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="12276"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="12455"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="13000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="13155"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="2000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="3807"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="13550"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="7342"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="4985"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="14698"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="7167"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="12817"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="5517"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="15208"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="14433"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="4562"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="75000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="80000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="3714"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="4010"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="10332"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="14693"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="4518"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="14757"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="8436"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="14849"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="11365"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="7358"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="7193"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="7668"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="3434"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="6000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="7197"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="5445"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="11901"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="10322"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="12127"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="6762"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="12500"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="100"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="12505"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="12505"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="600"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="12455"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="10039"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="11439"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="1000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="13091"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="100"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="6000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="10351"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="13596"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="8894"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="15208"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="10000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="13777"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="32000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="1000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="7955"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="14546"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="2"/>
+    <n v="50000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="4307"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="400"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="4384"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="1325"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="7874"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="9974"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="10000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="3171"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="17000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="25000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="14348"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="12489"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="9632"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="250"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="4623"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="124"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="2000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="400"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="13617"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="12887"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="5159"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="100"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="11134"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="5879"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="100"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="4000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="5000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <n v="90000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="12572"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="6662"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="1000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="8264"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="7277"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="1000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="3434"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="4566"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="100"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="5000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="3900"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="13128"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="9405"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="6000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="12505"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="9525"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="13462"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="13428"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="15000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="15984"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="4"/>
+    <n v="10587"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="5"/>
+    <n v="1000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="5"/>
+    <n v="3539"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="5"/>
+    <n v="10461"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="5"/>
+    <n v="5879"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="5"/>
+    <n v="2000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="5"/>
+    <n v="4000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="5"/>
+    <n v="5302"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="5"/>
+    <n v="6314"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="5"/>
+    <n v="9247"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="5"/>
+    <n v="7756"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="5"/>
+    <n v="14548"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="5"/>
+    <n v="3171"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="5"/>
+    <n v="25000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="5"/>
+    <n v="5957"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="5"/>
+    <n v="4113"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="5"/>
+    <n v="9010"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="5"/>
+    <n v="240"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="124"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="11765"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="3500"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="9113"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="10474"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="11000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="13500"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="4535"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="12000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="13583"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="14644"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="1946"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="90000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="1946"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="3728"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="4535"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="4785"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="100"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="1000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+    <n v="11632"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+    <n v="6144"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+    <n v="7000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+    <n v="4257"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+    <n v="400"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+    <n v="12673"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{08D9A0A7-C3F9-47B1-AB4C-51E63A342019}" name="Сводная таблица15" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I44:M85" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="118">
+        <item sd="0" x="115"/>
+        <item sd="0" x="114"/>
+        <item sd="0" x="113"/>
+        <item sd="0" x="112"/>
+        <item sd="0" x="111"/>
+        <item sd="0" x="110"/>
+        <item sd="0" x="109"/>
+        <item sd="0" x="108"/>
+        <item sd="0" x="107"/>
+        <item sd="0" x="106"/>
+        <item sd="0" x="105"/>
+        <item sd="0" x="104"/>
+        <item sd="0" x="103"/>
+        <item sd="0" x="102"/>
+        <item sd="0" x="101"/>
+        <item sd="0" x="100"/>
+        <item sd="0" x="99"/>
+        <item sd="0" x="98"/>
+        <item sd="0" x="97"/>
+        <item sd="0" x="96"/>
+        <item sd="0" x="95"/>
+        <item sd="0" x="94"/>
+        <item sd="0" x="93"/>
+        <item sd="0" x="92"/>
+        <item sd="0" x="91"/>
+        <item sd="0" x="90"/>
+        <item sd="0" x="89"/>
+        <item sd="0" x="88"/>
+        <item sd="0" x="87"/>
+        <item sd="0" x="86"/>
+        <item sd="0" x="85"/>
+        <item sd="0" x="84"/>
+        <item sd="0" x="83"/>
+        <item sd="0" x="82"/>
+        <item sd="0" x="81"/>
+        <item sd="0" x="80"/>
+        <item sd="0" x="79"/>
+        <item sd="0" x="78"/>
+        <item sd="0" x="77"/>
+        <item sd="0" x="76"/>
+        <item sd="0" x="75"/>
+        <item sd="0" x="74"/>
+        <item sd="0" x="73"/>
+        <item sd="0" x="72"/>
+        <item sd="0" x="71"/>
+        <item sd="0" x="70"/>
+        <item sd="0" x="69"/>
+        <item sd="0" x="68"/>
+        <item sd="0" x="67"/>
+        <item sd="0" x="66"/>
+        <item sd="0" x="65"/>
+        <item sd="0" x="64"/>
+        <item sd="0" x="63"/>
+        <item sd="0" x="62"/>
+        <item sd="0" x="61"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="116"/>
+        <item sd="0" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="8"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="40">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Сумма" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7316AFAC-96CC-47B9-B54D-3934F557E2ED}" name="Сводная таблица14" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I25:M39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="118">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Сумма" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B1E705C-C01C-460D-A180-BF200CBB96AD}" name="Сводная таблица13" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I15:M21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisPage" numFmtId="14" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="118">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="6" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Сумма" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62BE591B-1418-49BB-8101-564C57DA44A5}" name="Сводная таблица12" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I2:N7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="118">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Сумма" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -543,20 +8491,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C688664-0798-4C57-9F3B-8DCC97CDDD86}">
-  <dimension ref="A1:G713"/>
+  <dimension ref="A1:N713"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="7" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,8 +8533,13 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43556</v>
       </c>
@@ -601,8 +8561,14 @@
       <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43556</v>
       </c>
@@ -624,8 +8590,26 @@
       <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43556</v>
       </c>
@@ -647,8 +8631,26 @@
       <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="14">
+        <v>885757</v>
+      </c>
+      <c r="K4" s="14">
+        <v>68380</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1671268</v>
+      </c>
+      <c r="M4" s="14">
+        <v>802403</v>
+      </c>
+      <c r="N4" s="14">
+        <v>3427808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43556</v>
       </c>
@@ -670,8 +8672,26 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="14">
+        <v>467414</v>
+      </c>
+      <c r="K5" s="14">
+        <v>134374</v>
+      </c>
+      <c r="L5" s="14">
+        <v>912443</v>
+      </c>
+      <c r="M5" s="14">
+        <v>392516</v>
+      </c>
+      <c r="N5" s="14">
+        <v>1906747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43556</v>
       </c>
@@ -693,8 +8713,26 @@
       <c r="G6" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="14">
+        <v>336088</v>
+      </c>
+      <c r="K6" s="14">
+        <v>10000</v>
+      </c>
+      <c r="L6" s="14">
+        <v>638321</v>
+      </c>
+      <c r="M6" s="14">
+        <v>292995</v>
+      </c>
+      <c r="N6" s="14">
+        <v>1277404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43556</v>
       </c>
@@ -716,8 +8754,26 @@
       <c r="G7" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="14">
+        <v>1689259</v>
+      </c>
+      <c r="K7" s="14">
+        <v>212754</v>
+      </c>
+      <c r="L7" s="14">
+        <v>3222032</v>
+      </c>
+      <c r="M7" s="14">
+        <v>1487914</v>
+      </c>
+      <c r="N7" s="14">
+        <v>6611959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43556</v>
       </c>
@@ -740,7 +8796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43556</v>
       </c>
@@ -763,7 +8819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43556</v>
       </c>
@@ -785,8 +8841,14 @@
       <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43556</v>
       </c>
@@ -808,8 +8870,14 @@
       <c r="G11" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43556</v>
       </c>
@@ -831,8 +8899,14 @@
       <c r="G12" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43556</v>
       </c>
@@ -854,8 +8928,14 @@
       <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43556</v>
       </c>
@@ -878,7 +8958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43556</v>
       </c>
@@ -900,8 +8980,14 @@
       <c r="G15" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43556</v>
       </c>
@@ -923,8 +9009,23 @@
       <c r="G16" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>43556</v>
       </c>
@@ -946,8 +9047,23 @@
       <c r="G17" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="14">
+        <v>185365</v>
+      </c>
+      <c r="K17" s="14">
+        <v>107127</v>
+      </c>
+      <c r="L17" s="14">
+        <v>33594</v>
+      </c>
+      <c r="M17" s="14">
+        <v>326086</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43556</v>
       </c>
@@ -969,8 +9085,19 @@
       <c r="G18" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14">
+        <v>7000</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43556</v>
       </c>
@@ -992,8 +9119,23 @@
       <c r="G19" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="14">
+        <v>462624</v>
+      </c>
+      <c r="K19" s="14">
+        <v>139218</v>
+      </c>
+      <c r="L19" s="14">
+        <v>195435</v>
+      </c>
+      <c r="M19" s="14">
+        <v>797277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43556</v>
       </c>
@@ -1015,8 +9157,23 @@
       <c r="G20" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="14">
+        <v>117756</v>
+      </c>
+      <c r="K20" s="14">
+        <v>93575</v>
+      </c>
+      <c r="L20" s="14">
+        <v>62943</v>
+      </c>
+      <c r="M20" s="14">
+        <v>274274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43556</v>
       </c>
@@ -1038,8 +9195,23 @@
       <c r="G21" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="14">
+        <v>765745</v>
+      </c>
+      <c r="K21" s="14">
+        <v>346920</v>
+      </c>
+      <c r="L21" s="14">
+        <v>291972</v>
+      </c>
+      <c r="M21" s="14">
+        <v>1404637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43556</v>
       </c>
@@ -1062,7 +9234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43556</v>
       </c>
@@ -1085,7 +9257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43556</v>
       </c>
@@ -1108,7 +9280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43556</v>
       </c>
@@ -1130,8 +9302,14 @@
       <c r="G25" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43556</v>
       </c>
@@ -1153,8 +9331,23 @@
       <c r="G26" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43556</v>
       </c>
@@ -1176,8 +9369,23 @@
       <c r="G27" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="14">
+        <v>336088</v>
+      </c>
+      <c r="K27" s="14">
+        <v>467414</v>
+      </c>
+      <c r="L27" s="14">
+        <v>885757</v>
+      </c>
+      <c r="M27" s="14">
+        <v>1689259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>43556</v>
       </c>
@@ -1199,8 +9407,23 @@
       <c r="G28" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="14">
+        <v>73926</v>
+      </c>
+      <c r="K28" s="14">
+        <v>156513</v>
+      </c>
+      <c r="L28" s="14">
+        <v>322514</v>
+      </c>
+      <c r="M28" s="14">
+        <v>552953</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43556</v>
       </c>
@@ -1222,8 +9445,23 @@
       <c r="G29" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="14">
+        <v>262162</v>
+      </c>
+      <c r="K29" s="14">
+        <v>310901</v>
+      </c>
+      <c r="L29" s="14">
+        <v>563243</v>
+      </c>
+      <c r="M29" s="14">
+        <v>1136306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43556</v>
       </c>
@@ -1245,8 +9483,23 @@
       <c r="G30" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="14">
+        <v>10000</v>
+      </c>
+      <c r="K30" s="14">
+        <v>134374</v>
+      </c>
+      <c r="L30" s="14">
+        <v>68380</v>
+      </c>
+      <c r="M30" s="14">
+        <v>212754</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43556</v>
       </c>
@@ -1268,8 +9521,21 @@
       <c r="G31" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14">
+        <v>91820</v>
+      </c>
+      <c r="L31" s="14">
+        <v>9095</v>
+      </c>
+      <c r="M31" s="14">
+        <v>100915</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43556</v>
       </c>
@@ -1291,8 +9557,23 @@
       <c r="G32" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="14">
+        <v>10000</v>
+      </c>
+      <c r="K32" s="14">
+        <v>42554</v>
+      </c>
+      <c r="L32" s="14">
+        <v>59285</v>
+      </c>
+      <c r="M32" s="14">
+        <v>111839</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43556</v>
       </c>
@@ -1314,8 +9595,23 @@
       <c r="G33" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="14">
+        <v>638321</v>
+      </c>
+      <c r="K33" s="14">
+        <v>912443</v>
+      </c>
+      <c r="L33" s="14">
+        <v>1671268</v>
+      </c>
+      <c r="M33" s="14">
+        <v>3222032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43556</v>
       </c>
@@ -1337,8 +9633,23 @@
       <c r="G34" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="14">
+        <v>244794</v>
+      </c>
+      <c r="K34" s="14">
+        <v>363349</v>
+      </c>
+      <c r="L34" s="14">
+        <v>631856</v>
+      </c>
+      <c r="M34" s="14">
+        <v>1239999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43557</v>
       </c>
@@ -1360,8 +9671,23 @@
       <c r="G35" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="14">
+        <v>393527</v>
+      </c>
+      <c r="K35" s="14">
+        <v>549094</v>
+      </c>
+      <c r="L35" s="14">
+        <v>1039412</v>
+      </c>
+      <c r="M35" s="14">
+        <v>1982033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43557</v>
       </c>
@@ -1383,8 +9709,23 @@
       <c r="G36" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="14">
+        <v>292995</v>
+      </c>
+      <c r="K36" s="14">
+        <v>392516</v>
+      </c>
+      <c r="L36" s="14">
+        <v>802403</v>
+      </c>
+      <c r="M36" s="14">
+        <v>1487914</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43557</v>
       </c>
@@ -1406,8 +9747,23 @@
       <c r="G37" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="14">
+        <v>155257</v>
+      </c>
+      <c r="K37" s="14">
+        <v>185671</v>
+      </c>
+      <c r="L37" s="14">
+        <v>384373</v>
+      </c>
+      <c r="M37" s="14">
+        <v>725301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43557</v>
       </c>
@@ -1429,8 +9785,23 @@
       <c r="G38" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="14">
+        <v>137738</v>
+      </c>
+      <c r="K38" s="14">
+        <v>206845</v>
+      </c>
+      <c r="L38" s="14">
+        <v>418030</v>
+      </c>
+      <c r="M38" s="14">
+        <v>762613</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43557</v>
       </c>
@@ -1452,8 +9823,23 @@
       <c r="G39" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="14">
+        <v>1277404</v>
+      </c>
+      <c r="K39" s="14">
+        <v>1906747</v>
+      </c>
+      <c r="L39" s="14">
+        <v>3427808</v>
+      </c>
+      <c r="M39" s="14">
+        <v>6611959</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43557</v>
       </c>
@@ -1476,7 +9862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43557</v>
       </c>
@@ -1499,7 +9885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>43557</v>
       </c>
@@ -1522,7 +9908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43557</v>
       </c>
@@ -1545,7 +9931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43557</v>
       </c>
@@ -1567,8 +9953,14 @@
       <c r="G44" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I44" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43557</v>
       </c>
@@ -1590,8 +9982,23 @@
       <c r="G45" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I45" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43557</v>
       </c>
@@ -1613,8 +10020,23 @@
       <c r="G46" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I46" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="14">
+        <v>1216112</v>
+      </c>
+      <c r="K46" s="14">
+        <v>1521744</v>
+      </c>
+      <c r="L46" s="14">
+        <v>3062759</v>
+      </c>
+      <c r="M46" s="14">
+        <v>5800615</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>43557</v>
       </c>
@@ -1636,8 +10058,23 @@
       <c r="G47" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I47" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J47" s="14">
+        <v>40217</v>
+      </c>
+      <c r="K47" s="14">
+        <v>214966</v>
+      </c>
+      <c r="L47" s="14">
+        <v>218931</v>
+      </c>
+      <c r="M47" s="14">
+        <v>474114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43559</v>
       </c>
@@ -1659,8 +10096,19 @@
       <c r="G48" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I48" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14">
+        <v>19000</v>
+      </c>
+      <c r="M48" s="14">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43559</v>
       </c>
@@ -1682,8 +10130,19 @@
       <c r="G49" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I49" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14">
+        <v>10202</v>
+      </c>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14">
+        <v>10202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43559</v>
       </c>
@@ -1705,8 +10164,19 @@
       <c r="G50" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I50" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14">
+        <v>9095</v>
+      </c>
+      <c r="M50" s="14">
+        <v>9095</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>43559</v>
       </c>
@@ -1728,8 +10198,19 @@
       <c r="G51" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I51" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J51" s="14">
+        <v>500</v>
+      </c>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43559</v>
       </c>
@@ -1751,8 +10232,19 @@
       <c r="G52" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I52" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14">
+        <v>12000</v>
+      </c>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43559</v>
       </c>
@@ -1774,8 +10266,19 @@
       <c r="G53" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I53" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14">
+        <v>12000</v>
+      </c>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>43559</v>
       </c>
@@ -1797,8 +10300,19 @@
       <c r="G54" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I54" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14">
+        <v>12000</v>
+      </c>
+      <c r="M54" s="14">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43559</v>
       </c>
@@ -1820,8 +10334,19 @@
       <c r="G55" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I55" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14">
+        <v>12000</v>
+      </c>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>43559</v>
       </c>
@@ -1843,8 +10368,19 @@
       <c r="G56" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I56" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J56" s="14">
+        <v>500</v>
+      </c>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43559</v>
       </c>
@@ -1866,8 +10402,19 @@
       <c r="G57" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J57" s="14">
+        <v>500</v>
+      </c>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43559</v>
       </c>
@@ -1889,8 +10436,19 @@
       <c r="G58" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14">
+        <v>6000</v>
+      </c>
+      <c r="M58" s="14">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43559</v>
       </c>
@@ -1912,8 +10470,19 @@
       <c r="G59" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I59" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14">
+        <v>12000</v>
+      </c>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43559</v>
       </c>
@@ -1935,8 +10504,19 @@
       <c r="G60" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I60" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14">
+        <v>12535</v>
+      </c>
+      <c r="M60" s="14">
+        <v>12535</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43559</v>
       </c>
@@ -1958,8 +10538,19 @@
       <c r="G61" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I61" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14">
+        <v>13500</v>
+      </c>
+      <c r="M61" s="14">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43559</v>
       </c>
@@ -1981,8 +10572,19 @@
       <c r="G62" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I62" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14">
+        <v>8000</v>
+      </c>
+      <c r="M62" s="14">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43559</v>
       </c>
@@ -2004,8 +10606,19 @@
       <c r="G63" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I63" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14">
+        <v>13636</v>
+      </c>
+      <c r="M63" s="14">
+        <v>13636</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>43559</v>
       </c>
@@ -2027,8 +10640,19 @@
       <c r="G64" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I64" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14">
+        <v>500</v>
+      </c>
+      <c r="M64" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>43559</v>
       </c>
@@ -2050,8 +10674,19 @@
       <c r="G65" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I65" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J65" s="14">
+        <v>3075</v>
+      </c>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>43559</v>
       </c>
@@ -2073,8 +10708,19 @@
       <c r="G66" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I66" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14">
+        <v>4000</v>
+      </c>
+      <c r="M66" s="14">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>43559</v>
       </c>
@@ -2096,8 +10742,19 @@
       <c r="G67" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I67" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14">
+        <v>500</v>
+      </c>
+      <c r="M67" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>43559</v>
       </c>
@@ -2119,8 +10776,19 @@
       <c r="G68" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I68" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J68" s="14">
+        <v>500</v>
+      </c>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>43559</v>
       </c>
@@ -2142,8 +10810,19 @@
       <c r="G69" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I69" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14">
+        <v>5723</v>
+      </c>
+      <c r="M69" s="14">
+        <v>5723</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>43559</v>
       </c>
@@ -2165,8 +10844,19 @@
       <c r="G70" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I70" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14">
+        <v>4000</v>
+      </c>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>43559</v>
       </c>
@@ -2188,8 +10878,19 @@
       <c r="G71" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I71" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14">
+        <v>8000</v>
+      </c>
+      <c r="M71" s="14">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>43559</v>
       </c>
@@ -2211,8 +10912,19 @@
       <c r="G72" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I72" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14">
+        <v>7000</v>
+      </c>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>43559</v>
       </c>
@@ -2234,8 +10946,19 @@
       <c r="G73" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I73" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J73" s="14">
+        <v>16000</v>
+      </c>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>43559</v>
       </c>
@@ -2257,8 +10980,19 @@
       <c r="G74" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I74" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14">
+        <v>5245</v>
+      </c>
+      <c r="M74" s="14">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>43559</v>
       </c>
@@ -2280,8 +11014,19 @@
       <c r="G75" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I75" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14">
+        <v>3596</v>
+      </c>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>43559</v>
       </c>
@@ -2303,8 +11048,19 @@
       <c r="G76" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I76" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14">
+        <v>5000</v>
+      </c>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>43559</v>
       </c>
@@ -2326,8 +11082,19 @@
       <c r="G77" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I77" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14">
+        <v>7882</v>
+      </c>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14">
+        <v>7882</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>43559</v>
       </c>
@@ -2349,8 +11116,19 @@
       <c r="G78" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I78" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14">
+        <v>6000</v>
+      </c>
+      <c r="M78" s="14">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>43559</v>
       </c>
@@ -2372,8 +11150,19 @@
       <c r="G79" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I79" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14">
+        <v>4357</v>
+      </c>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>43559</v>
       </c>
@@ -2395,8 +11184,19 @@
       <c r="G80" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I80" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14">
+        <v>9095</v>
+      </c>
+      <c r="M80" s="14">
+        <v>9095</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>43559</v>
       </c>
@@ -2418,8 +11218,19 @@
       <c r="G81" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I81" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14">
+        <v>7289</v>
+      </c>
+      <c r="M81" s="14">
+        <v>7289</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>43559</v>
       </c>
@@ -2441,8 +11252,19 @@
       <c r="G82" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I82" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14">
+        <v>6000</v>
+      </c>
+      <c r="M82" s="14">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>43559</v>
       </c>
@@ -2464,8 +11286,19 @@
       <c r="G83" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I83" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14">
+        <v>75000</v>
+      </c>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>43559</v>
       </c>
@@ -2487,8 +11320,19 @@
       <c r="G84" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I84" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14">
+        <v>5000</v>
+      </c>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>43559</v>
       </c>
@@ -2510,8 +11354,23 @@
       <c r="G85" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I85" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J85" s="14">
+        <v>1277404</v>
+      </c>
+      <c r="K85" s="14">
+        <v>1906747</v>
+      </c>
+      <c r="L85" s="14">
+        <v>3427808</v>
+      </c>
+      <c r="M85" s="14">
+        <v>6611959</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>43559</v>
       </c>
@@ -2534,7 +11393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>43559</v>
       </c>
@@ -2557,7 +11416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>43560</v>
       </c>
@@ -2580,7 +11439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>43560</v>
       </c>
@@ -2603,7 +11462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>43560</v>
       </c>
@@ -2626,7 +11485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>43560</v>
       </c>
@@ -2649,7 +11508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>43560</v>
       </c>
@@ -2672,7 +11531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>43560</v>
       </c>
@@ -2695,7 +11554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>43560</v>
       </c>
@@ -2718,7 +11577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>43560</v>
       </c>
@@ -2741,7 +11600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>43560</v>
       </c>
@@ -16956,6 +25815,10 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G713" xr:uid="{1C688664-0798-4C57-9F3B-8DCC97CDDD86}"/>
+  <mergeCells count="1">
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>